--- a/biology/Zoologie/Duponchelia_fovealis/Duponchelia_fovealis.xlsx
+++ b/biology/Zoologie/Duponchelia_fovealis/Duponchelia_fovealis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">'Duponchelia fovealis 'est une espèce d'insectes de l'ordre des lépidoptères (papillons), de la famille des Crambidae.
-Il est originaire du bassin méditerranéen et des îles Canaries, mais il s'est répandu dans d'autres régions du monde, comme l'Afrique, le Moyen-Orient, l'Europe, les États-Unis d'Amérique et le Canada[1].
+Il est originaire du bassin méditerranéen et des îles Canaries, mais il s'est répandu dans d'autres régions du monde, comme l'Afrique, le Moyen-Orient, l'Europe, les États-Unis d'Amérique et le Canada.
 Ses chenilles se nourrissent d'une vaste gamme de plantes hôtes, comme : Anemones, Anthuriums, Begonias, Cyclamens, Euphorbias, Gerberas, Kalanchoes, Limoniums, Roses, certaines plantes aquatiques, maïs, concombre, poivrons.
 L'envergure de leurs ailes est d'environ 20 mm.
 </t>
